--- a/data/trans_orig/P36BPD09_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD09_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82F24303-0BA4-4FB3-A48E-97919F8A8BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA22F08A-2A95-48ED-A851-30E904F96053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{032C2ED6-DB0B-4580-8E70-57D91CEBCB9A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{40BDE788-9059-4214-AC63-0681B6B20281}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="260">
   <si>
     <t>Población según el número de raciones de legumbres que consumen a la semana en 2023 (Tasa respuesta: 99,76%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>0,7%</t>
   </si>
   <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
   </si>
   <si>
     <t>1,72%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
   </si>
   <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
   </si>
   <si>
     <t>Una o dos a la semana</t>
@@ -104,28 +104,28 @@
     <t>90,49%</t>
   </si>
   <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
   </si>
   <si>
     <t>93,26%</t>
   </si>
   <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
   </si>
   <si>
     <t>91,9%</t>
   </si>
   <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
   </si>
   <si>
     <t>Tres o más por semana</t>
@@ -134,691 +134,685 @@
     <t>8,81%</t>
   </si>
   <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
   </si>
   <si>
     <t>5,02%</t>
   </si>
   <si>
-    <t>3,27%</t>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
   </si>
   <si>
     <t>7,28%</t>
   </si>
   <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
   </si>
   <si>
     <t>31,93%</t>
   </si>
   <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
     <t>30,16%</t>
   </si>
   <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
+    <t>27,6%</t>
   </si>
   <si>
     <t>29,32%</t>
   </si>
   <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1233,7 +1227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD33B442-EF58-4A2E-88C5-55D2B47447B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A04E5C2-B0D8-4CC1-897A-67C951A18F45}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1805,7 +1799,7 @@
         <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,13 +1814,13 @@
         <v>178852</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>284</v>
@@ -1835,13 +1829,13 @@
         <v>206296</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>474</v>
@@ -1850,13 +1844,13 @@
         <v>385148</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1871,13 +1865,13 @@
         <v>130900</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>225</v>
@@ -1886,13 +1880,13 @@
         <v>148665</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>381</v>
@@ -1901,13 +1895,13 @@
         <v>279565</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,7 +1957,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1975,13 +1969,13 @@
         <v>34595</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -1990,13 +1984,13 @@
         <v>35953</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>85</v>
@@ -2005,13 +1999,13 @@
         <v>70548</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,13 +2020,13 @@
         <v>163911</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>288</v>
@@ -2041,13 +2035,13 @@
         <v>229705</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>439</v>
@@ -2056,13 +2050,13 @@
         <v>393616</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2077,13 +2071,13 @@
         <v>122315</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>255</v>
@@ -2092,13 +2086,13 @@
         <v>162898</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>365</v>
@@ -2107,13 +2101,13 @@
         <v>285213</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2169,7 +2163,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2181,13 +2175,13 @@
         <v>9456</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -2196,13 +2190,13 @@
         <v>2903</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>18</v>
@@ -2599,7 +2593,7 @@
         <v>182</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="H28" s="7">
         <v>78</v>
@@ -2608,13 +2602,13 @@
         <v>58425</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M28" s="7">
         <v>119</v>
@@ -2623,13 +2617,13 @@
         <v>97130</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2644,13 +2638,13 @@
         <v>359272</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H29" s="7">
         <v>545</v>
@@ -2659,13 +2653,13 @@
         <v>395562</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M29" s="7">
         <v>876</v>
@@ -2674,13 +2668,13 @@
         <v>754834</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2695,13 +2689,13 @@
         <v>227660</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H30" s="7">
         <v>336</v>
@@ -2710,13 +2704,13 @@
         <v>349515</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M30" s="7">
         <v>561</v>
@@ -2725,13 +2719,13 @@
         <v>577175</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,7 +2781,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2799,13 +2793,13 @@
         <v>75500</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H32" s="7">
         <v>93</v>
@@ -2814,13 +2808,13 @@
         <v>83772</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M32" s="7">
         <v>163</v>
@@ -2829,13 +2823,13 @@
         <v>159272</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2850,13 +2844,13 @@
         <v>595556</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H33" s="7">
         <v>769</v>
@@ -2865,13 +2859,13 @@
         <v>619499</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M33" s="7">
         <v>1329</v>
@@ -2880,13 +2874,13 @@
         <v>1215055</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,13 +2895,13 @@
         <v>187656</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H34" s="7">
         <v>200</v>
@@ -2916,13 +2910,13 @@
         <v>165163</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M34" s="7">
         <v>331</v>
@@ -2931,13 +2925,13 @@
         <v>352819</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,13 +2999,13 @@
         <v>250782</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H36" s="7">
         <v>359</v>
@@ -3020,13 +3014,13 @@
         <v>272105</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M36" s="7">
         <v>589</v>
@@ -3035,13 +3029,13 @@
         <v>522887</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>36</v>
+        <v>240</v>
       </c>
       <c r="P36" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,13 +3050,13 @@
         <v>2169436</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H37" s="7">
         <v>3454</v>
@@ -3071,13 +3065,13 @@
         <v>2382121</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M37" s="7">
         <v>5662</v>
@@ -3086,13 +3080,13 @@
         <v>4551557</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,10 +3104,10 @@
         <v>66</v>
       </c>
       <c r="F38" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H38" s="7">
         <v>1540</v>
@@ -3122,13 +3116,13 @@
         <v>1146190</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="K38" s="7" t="s">
-        <v>256</v>
-      </c>
       <c r="L38" s="7" t="s">
-        <v>257</v>
+        <v>118</v>
       </c>
       <c r="M38" s="7">
         <v>2471</v>
@@ -3137,13 +3131,13 @@
         <v>2105450</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,7 +3193,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36BPD09_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD09_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA22F08A-2A95-48ED-A851-30E904F96053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AAD61BB-9950-40DC-A101-7AE171538E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{40BDE788-9059-4214-AC63-0681B6B20281}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BEC6DAD9-86F2-483B-987A-22866D32A34E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="262">
   <si>
     <t>Población según el número de raciones de legumbres que consumen a la semana en 2023 (Tasa respuesta: 99,76%)</t>
   </si>
@@ -71,748 +71,754 @@
     <t>Menos de una por semana</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>Una o dos a la semana</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>Tres o más por semana</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
   </si>
   <si>
     <t>1,72%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>Una o dos a la semana</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>Tres o más por semana</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
   </si>
   <si>
     <t>45,68%</t>
   </si>
   <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1227,7 +1233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A04E5C2-B0D8-4CC1-897A-67C951A18F45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33D69CB-3696-4696-A62D-954296308B1E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1348,7 +1354,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>1826</v>
+        <v>1956</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1363,7 +1369,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>4678</v>
+        <v>4851</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1378,7 +1384,7 @@
         <v>15</v>
       </c>
       <c r="N4" s="7">
-        <v>6504</v>
+        <v>6807</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1399,7 +1405,7 @@
         <v>298</v>
       </c>
       <c r="D5" s="7">
-        <v>235532</v>
+        <v>281561</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1414,7 +1420,7 @@
         <v>499</v>
       </c>
       <c r="I5" s="7">
-        <v>253111</v>
+        <v>270615</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1429,7 +1435,7 @@
         <v>797</v>
       </c>
       <c r="N5" s="7">
-        <v>488641</v>
+        <v>552175</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1450,7 +1456,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>22941</v>
+        <v>27926</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1465,7 +1471,7 @@
         <v>29</v>
       </c>
       <c r="I6" s="7">
-        <v>13614</v>
+        <v>14170</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1480,7 +1486,7 @@
         <v>57</v>
       </c>
       <c r="N6" s="7">
-        <v>36555</v>
+        <v>42095</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1501,7 +1507,7 @@
         <v>331</v>
       </c>
       <c r="D7" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1516,7 +1522,7 @@
         <v>538</v>
       </c>
       <c r="I7" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1531,7 +1537,7 @@
         <v>869</v>
       </c>
       <c r="N7" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1554,7 +1560,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="7">
-        <v>67435</v>
+        <v>69084</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -1569,7 +1575,7 @@
         <v>79</v>
       </c>
       <c r="I8" s="7">
-        <v>64106</v>
+        <v>59329</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -1584,7 +1590,7 @@
         <v>125</v>
       </c>
       <c r="N8" s="7">
-        <v>131541</v>
+        <v>128413</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1605,7 +1611,7 @@
         <v>230</v>
       </c>
       <c r="D9" s="7">
-        <v>309870</v>
+        <v>307211</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -1620,7 +1626,7 @@
         <v>421</v>
       </c>
       <c r="I9" s="7">
-        <v>327680</v>
+        <v>304364</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -1635,7 +1641,7 @@
         <v>651</v>
       </c>
       <c r="N9" s="7">
-        <v>637551</v>
+        <v>611575</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -1656,7 +1662,7 @@
         <v>106</v>
       </c>
       <c r="D10" s="7">
-        <v>141993</v>
+        <v>142095</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -1671,7 +1677,7 @@
         <v>217</v>
       </c>
       <c r="I10" s="7">
-        <v>162780</v>
+        <v>151276</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -1686,7 +1692,7 @@
         <v>323</v>
       </c>
       <c r="N10" s="7">
-        <v>304773</v>
+        <v>293371</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -1707,7 +1713,7 @@
         <v>382</v>
       </c>
       <c r="D11" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -1722,7 +1728,7 @@
         <v>717</v>
       </c>
       <c r="I11" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -1737,7 +1743,7 @@
         <v>1099</v>
       </c>
       <c r="N11" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -1760,7 +1766,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="7">
-        <v>11567</v>
+        <v>11236</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -1775,7 +1781,7 @@
         <v>20</v>
       </c>
       <c r="I12" s="7">
-        <v>12879</v>
+        <v>12020</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>73</v>
@@ -1790,7 +1796,7 @@
         <v>33</v>
       </c>
       <c r="N12" s="7">
-        <v>24447</v>
+        <v>23256</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>76</v>
@@ -1799,7 +1805,7 @@
         <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1811,46 +1817,46 @@
         <v>190</v>
       </c>
       <c r="D13" s="7">
-        <v>178852</v>
+        <v>176729</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>284</v>
       </c>
       <c r="I13" s="7">
-        <v>206296</v>
+        <v>193258</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>474</v>
       </c>
       <c r="N13" s="7">
-        <v>385148</v>
+        <v>369986</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1862,46 +1868,46 @@
         <v>156</v>
       </c>
       <c r="D14" s="7">
-        <v>130900</v>
+        <v>127207</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>225</v>
       </c>
       <c r="I14" s="7">
-        <v>148665</v>
+        <v>138764</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>381</v>
       </c>
       <c r="N14" s="7">
-        <v>279565</v>
+        <v>265971</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1913,7 +1919,7 @@
         <v>359</v>
       </c>
       <c r="D15" s="7">
-        <v>321319</v>
+        <v>315172</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -1928,7 +1934,7 @@
         <v>529</v>
       </c>
       <c r="I15" s="7">
-        <v>367841</v>
+        <v>344041</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -1943,7 +1949,7 @@
         <v>888</v>
       </c>
       <c r="N15" s="7">
-        <v>689160</v>
+        <v>659213</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -1957,7 +1963,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1966,46 +1972,46 @@
         <v>29</v>
       </c>
       <c r="D16" s="7">
-        <v>34595</v>
+        <v>34255</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
       </c>
       <c r="I16" s="7">
-        <v>35953</v>
+        <v>33471</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>85</v>
       </c>
       <c r="N16" s="7">
-        <v>70548</v>
+        <v>67726</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2017,46 +2023,46 @@
         <v>151</v>
       </c>
       <c r="D17" s="7">
-        <v>163911</v>
+        <v>161119</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>288</v>
       </c>
       <c r="I17" s="7">
-        <v>229705</v>
+        <v>267345</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>439</v>
       </c>
       <c r="N17" s="7">
-        <v>393616</v>
+        <v>428464</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2068,46 +2074,46 @@
         <v>110</v>
       </c>
       <c r="D18" s="7">
-        <v>122315</v>
+        <v>115819</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>255</v>
       </c>
       <c r="I18" s="7">
-        <v>162898</v>
+        <v>174902</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>365</v>
       </c>
       <c r="N18" s="7">
-        <v>285213</v>
+        <v>290722</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2119,7 +2125,7 @@
         <v>290</v>
       </c>
       <c r="D19" s="7">
-        <v>320821</v>
+        <v>311193</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -2134,7 +2140,7 @@
         <v>599</v>
       </c>
       <c r="I19" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -2149,7 +2155,7 @@
         <v>889</v>
       </c>
       <c r="N19" s="7">
-        <v>749377</v>
+        <v>786911</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -2163,7 +2169,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2172,46 +2178,46 @@
         <v>11</v>
       </c>
       <c r="D20" s="7">
-        <v>9456</v>
+        <v>8468</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
       </c>
       <c r="I20" s="7">
-        <v>2903</v>
+        <v>2632</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>18</v>
       </c>
       <c r="N20" s="7">
-        <v>12359</v>
+        <v>11101</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2223,46 +2229,46 @@
         <v>204</v>
       </c>
       <c r="D21" s="7">
-        <v>140351</v>
+        <v>127545</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>350</v>
       </c>
       <c r="I21" s="7">
-        <v>161490</v>
+        <v>145430</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>554</v>
       </c>
       <c r="N21" s="7">
-        <v>301841</v>
+        <v>272975</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2274,46 +2280,46 @@
         <v>63</v>
       </c>
       <c r="D22" s="7">
-        <v>46363</v>
+        <v>42226</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>134</v>
       </c>
       <c r="I22" s="7">
-        <v>67103</v>
+        <v>60212</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>197</v>
       </c>
       <c r="N22" s="7">
-        <v>113466</v>
+        <v>102437</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2325,7 +2331,7 @@
         <v>278</v>
       </c>
       <c r="D23" s="7">
-        <v>196170</v>
+        <v>178239</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -2340,7 +2346,7 @@
         <v>491</v>
       </c>
       <c r="I23" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -2355,7 +2361,7 @@
         <v>769</v>
       </c>
       <c r="N23" s="7">
-        <v>427666</v>
+        <v>386513</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -2369,7 +2375,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2378,43 +2384,43 @@
         <v>15</v>
       </c>
       <c r="D24" s="7">
-        <v>11698</v>
+        <v>11258</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H24" s="7">
         <v>16</v>
       </c>
       <c r="I24" s="7">
-        <v>9387</v>
+        <v>8761</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M24" s="7">
         <v>31</v>
       </c>
       <c r="N24" s="7">
-        <v>21086</v>
+        <v>20019</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>161</v>
@@ -2429,7 +2435,7 @@
         <v>244</v>
       </c>
       <c r="D25" s="7">
-        <v>186092</v>
+        <v>181256</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>162</v>
@@ -2444,7 +2450,7 @@
         <v>298</v>
       </c>
       <c r="I25" s="7">
-        <v>188779</v>
+        <v>175851</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>165</v>
@@ -2459,7 +2465,7 @@
         <v>542</v>
       </c>
       <c r="N25" s="7">
-        <v>374871</v>
+        <v>357108</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>168</v>
@@ -2480,7 +2486,7 @@
         <v>112</v>
       </c>
       <c r="D26" s="7">
-        <v>79433</v>
+        <v>77122</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>171</v>
@@ -2495,7 +2501,7 @@
         <v>144</v>
       </c>
       <c r="I26" s="7">
-        <v>76452</v>
+        <v>71510</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>174</v>
@@ -2510,7 +2516,7 @@
         <v>256</v>
       </c>
       <c r="N26" s="7">
-        <v>155885</v>
+        <v>148631</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>177</v>
@@ -2531,7 +2537,7 @@
         <v>371</v>
       </c>
       <c r="D27" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -2546,7 +2552,7 @@
         <v>458</v>
       </c>
       <c r="I27" s="7">
-        <v>274618</v>
+        <v>256122</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -2561,7 +2567,7 @@
         <v>829</v>
       </c>
       <c r="N27" s="7">
-        <v>551841</v>
+        <v>525758</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -2584,7 +2590,7 @@
         <v>41</v>
       </c>
       <c r="D28" s="7">
-        <v>38705</v>
+        <v>38221</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>181</v>
@@ -2593,37 +2599,37 @@
         <v>182</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="H28" s="7">
         <v>78</v>
       </c>
       <c r="I28" s="7">
-        <v>58425</v>
+        <v>54468</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M28" s="7">
         <v>119</v>
       </c>
       <c r="N28" s="7">
-        <v>97130</v>
+        <v>92689</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2635,46 +2641,46 @@
         <v>331</v>
       </c>
       <c r="D29" s="7">
-        <v>359272</v>
+        <v>361026</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H29" s="7">
         <v>545</v>
       </c>
       <c r="I29" s="7">
-        <v>395562</v>
+        <v>367787</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M29" s="7">
         <v>876</v>
       </c>
       <c r="N29" s="7">
-        <v>754834</v>
+        <v>728814</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,46 +2692,46 @@
         <v>225</v>
       </c>
       <c r="D30" s="7">
-        <v>227660</v>
+        <v>223011</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H30" s="7">
         <v>336</v>
       </c>
       <c r="I30" s="7">
-        <v>349515</v>
+        <v>426367</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M30" s="7">
         <v>561</v>
       </c>
       <c r="N30" s="7">
-        <v>577175</v>
+        <v>649379</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2737,7 +2743,7 @@
         <v>597</v>
       </c>
       <c r="D31" s="7">
-        <v>625637</v>
+        <v>622259</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>40</v>
@@ -2752,7 +2758,7 @@
         <v>959</v>
       </c>
       <c r="I31" s="7">
-        <v>803502</v>
+        <v>848623</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>40</v>
@@ -2767,7 +2773,7 @@
         <v>1556</v>
       </c>
       <c r="N31" s="7">
-        <v>1429139</v>
+        <v>1470882</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
@@ -2781,7 +2787,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2790,46 +2796,46 @@
         <v>70</v>
       </c>
       <c r="D32" s="7">
-        <v>75500</v>
+        <v>64601</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>127</v>
+        <v>209</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H32" s="7">
         <v>93</v>
       </c>
       <c r="I32" s="7">
-        <v>83772</v>
+        <v>68664</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M32" s="7">
         <v>163</v>
       </c>
       <c r="N32" s="7">
-        <v>159272</v>
+        <v>133265</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>214</v>
+        <v>34</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2841,46 +2847,46 @@
         <v>560</v>
       </c>
       <c r="D33" s="7">
-        <v>595556</v>
+        <v>504119</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H33" s="7">
         <v>769</v>
       </c>
       <c r="I33" s="7">
-        <v>619499</v>
+        <v>513031</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M33" s="7">
         <v>1329</v>
       </c>
       <c r="N33" s="7">
-        <v>1215055</v>
+        <v>1017150</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2892,46 +2898,46 @@
         <v>131</v>
       </c>
       <c r="D34" s="7">
-        <v>187656</v>
+        <v>359368</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H34" s="7">
         <v>200</v>
       </c>
       <c r="I34" s="7">
-        <v>165163</v>
+        <v>136036</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M34" s="7">
         <v>331</v>
       </c>
       <c r="N34" s="7">
-        <v>352819</v>
+        <v>495404</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2943,7 +2949,7 @@
         <v>761</v>
       </c>
       <c r="D35" s="7">
-        <v>858712</v>
+        <v>928088</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>40</v>
@@ -2958,7 +2964,7 @@
         <v>1062</v>
       </c>
       <c r="I35" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>40</v>
@@ -2973,7 +2979,7 @@
         <v>1823</v>
       </c>
       <c r="N35" s="7">
-        <v>1727146</v>
+        <v>1645819</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>40</v>
@@ -2996,46 +3002,46 @@
         <v>230</v>
       </c>
       <c r="D36" s="7">
-        <v>250782</v>
+        <v>239080</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H36" s="7">
         <v>359</v>
       </c>
       <c r="I36" s="7">
-        <v>272105</v>
+        <v>244195</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M36" s="7">
         <v>589</v>
       </c>
       <c r="N36" s="7">
-        <v>522887</v>
+        <v>483276</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,46 +3053,46 @@
         <v>2208</v>
       </c>
       <c r="D37" s="7">
-        <v>2169436</v>
+        <v>2100565</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H37" s="7">
         <v>3454</v>
       </c>
       <c r="I37" s="7">
-        <v>2382121</v>
+        <v>2237680</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M37" s="7">
         <v>5662</v>
       </c>
       <c r="N37" s="7">
-        <v>4551557</v>
+        <v>4338246</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,46 +3104,46 @@
         <v>931</v>
       </c>
       <c r="D38" s="7">
-        <v>959260</v>
+        <v>1114774</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>66</v>
+        <v>253</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H38" s="7">
         <v>1540</v>
       </c>
       <c r="I38" s="7">
-        <v>1146190</v>
+        <v>1173237</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>118</v>
+        <v>258</v>
       </c>
       <c r="M38" s="7">
         <v>2471</v>
       </c>
       <c r="N38" s="7">
-        <v>2105450</v>
+        <v>2288011</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>257</v>
+        <v>60</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,7 +3155,7 @@
         <v>3369</v>
       </c>
       <c r="D39" s="7">
-        <v>3379478</v>
+        <v>3454419</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>40</v>
@@ -3164,7 +3170,7 @@
         <v>5353</v>
       </c>
       <c r="I39" s="7">
-        <v>3800416</v>
+        <v>3655112</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>40</v>
@@ -3179,7 +3185,7 @@
         <v>8722</v>
       </c>
       <c r="N39" s="7">
-        <v>7179893</v>
+        <v>7109532</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>40</v>
@@ -3193,7 +3199,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
